--- a/Accounts-Schedules/Transportation_team.xlsx
+++ b/Accounts-Schedules/Transportation_team.xlsx
@@ -91,7 +91,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +118,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -262,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,12 +284,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6AA84F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,133 +642,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -777,31 +777,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1344,7 +1344,7 @@
   <dimension ref="A2:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="$A7:$XFD9"/>
+      <selection activeCell="A5" sqref="A5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="5"/>
@@ -1354,7 +1354,7 @@
     <col min="3" max="16" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17">
+    <row r="2" ht="16" customHeight="1" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" ht="16" customHeight="1" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1460,46 +1460,46 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="3">
-        <v>46006</v>
+        <v>46013</v>
       </c>
       <c r="D4" s="3">
-        <v>46006</v>
+        <v>46013</v>
       </c>
       <c r="E4" s="3">
-        <v>46007</v>
+        <v>46014</v>
       </c>
       <c r="F4" s="3">
-        <v>46007</v>
+        <v>46014</v>
       </c>
       <c r="G4" s="3">
-        <v>46008</v>
+        <v>46015</v>
       </c>
       <c r="H4" s="3">
-        <v>46008</v>
+        <v>46015</v>
       </c>
       <c r="I4" s="3">
-        <v>46009</v>
+        <v>46016</v>
       </c>
       <c r="J4" s="3">
-        <v>46009</v>
+        <v>46016</v>
       </c>
       <c r="K4" s="3">
-        <v>46010</v>
+        <v>46017</v>
       </c>
       <c r="L4" s="3">
-        <v>46010</v>
+        <v>46017</v>
       </c>
       <c r="M4" s="3">
-        <v>46011</v>
+        <v>46018</v>
       </c>
       <c r="N4" s="3">
-        <v>46011</v>
+        <v>46018</v>
       </c>
       <c r="O4" s="3">
-        <v>46012</v>
+        <v>46019</v>
       </c>
       <c r="P4" s="3">
-        <v>46012</v>
+        <v>46019</v>
       </c>
       <c r="Q4" s="9"/>
     </row>
@@ -1564,34 +1564,34 @@
         <v>16</v>
       </c>
       <c r="C6" s="7">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D6" s="7">
-        <v>0.708333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="E6" s="7">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="F6" s="7">
-        <v>0.708333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="G6" s="7">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="7">
-        <v>0.708333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="I6" s="7">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="7">
-        <v>0.708333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="K6" s="7">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L6" s="7">
-        <v>0.708333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>14</v>
